--- a/medicine/Soins infirmiers et profession infirmière/Dorothea_Dix/Dorothea_Dix.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Dorothea_Dix/Dorothea_Dix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothea Dix, (4 avril 1802 – 17 juillet 1887) est une militante américaine qui a fait campagne et pression sur le Congrès  américains des États-Unis et sur les assemblées législatives de différents Etats américains afin de créer les premiers établissements pour personnes en situation de handicap mental dans ce pays. Elle est à l'origine de la première génération d'asiles psychiatriques américains. Elle a été aussi surintendante des infirmières de guerre durant la guerre de Sécession.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1802 à Hampden[1], elle grandit dans le  Massachusetts[1]. Elle commence comme enseignante dans cet État et crée aussi une école pour filles qu'elle dirige jusqu'en 1836[1].
-Souffrant de tuberculose et de dépression, elle se rend en Europe se faire soigner[1]. De retour dans le Massachusetts en 1838, elle dresse l'état des institutions de soins des malades mentaux  et amène le gouvernement de cet État à prendre conscience du manque de moyens[1]. Elle obtient qu'une loi soit votée dans cet État pour renforcer les moyens existants. Elle entreprend ensuite des actions similaires dans d'autres États américains[1]. À partir de 1848, elle tente d'obtenir une loi fédérale des membres du Congrès des États-Unis, mais se heurte au veto du président Franklin Pierce, qui veut laisser à chaque territoire sa liberté dans ce domaine[1].
-De 1854 à 1856, elle reprend ses voyages en Europe, pour y examiner la façon dont cette question de santé publique est abordée[1].
-Au début de la guerre de Sécession, elle se présente en 1861 au secrétaire à la Guerre, Simon Cameron, afin de proposer ses services, cinq jours après la Bataille de Fort Sumter  qui déclenche cette guerre civile, et celui-ci accepte[1]. Elle devient surintendante des infirmières de guerre. Plus de 3 000 femmes sont retenues dans le programme de recrutement qu'elle met en place[2]. Elle reprend ensuite ses voyages et ses projets de réforme[1]. 
-Elle meurt en 1887 à Trenton. Elle est enterrée dans le cimetière de Mount Auburn à Cambridge au Massachusetts[3](p116).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1802 à Hampden, elle grandit dans le  Massachusetts. Elle commence comme enseignante dans cet État et crée aussi une école pour filles qu'elle dirige jusqu'en 1836.
+Souffrant de tuberculose et de dépression, elle se rend en Europe se faire soigner. De retour dans le Massachusetts en 1838, elle dresse l'état des institutions de soins des malades mentaux  et amène le gouvernement de cet État à prendre conscience du manque de moyens. Elle obtient qu'une loi soit votée dans cet État pour renforcer les moyens existants. Elle entreprend ensuite des actions similaires dans d'autres États américains. À partir de 1848, elle tente d'obtenir une loi fédérale des membres du Congrès des États-Unis, mais se heurte au veto du président Franklin Pierce, qui veut laisser à chaque territoire sa liberté dans ce domaine.
+De 1854 à 1856, elle reprend ses voyages en Europe, pour y examiner la façon dont cette question de santé publique est abordée.
+Au début de la guerre de Sécession, elle se présente en 1861 au secrétaire à la Guerre, Simon Cameron, afin de proposer ses services, cinq jours après la Bataille de Fort Sumter  qui déclenche cette guerre civile, et celui-ci accepte. Elle devient surintendante des infirmières de guerre. Plus de 3 000 femmes sont retenues dans le programme de recrutement qu'elle met en place. Elle reprend ensuite ses voyages et ses projets de réforme. 
+Elle meurt en 1887 à Trenton. Elle est enterrée dans le cimetière de Mount Auburn à Cambridge au Massachusetts(p116).
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1979 : cérémonie d'admission au National Women's Hall of Fame[4].
-Le cratère vénusien Dix a été nommé en son honneur[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1979 : cérémonie d'admission au National Women's Hall of Fame.
+Le cratère vénusien Dix a été nommé en son honneur.</t>
         </is>
       </c>
     </row>
